--- a/py_tian05_tennis/manully one click/W_washed_tennis.xlsx
+++ b/py_tian05_tennis/manully one click/W_washed_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,266 +608,272 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>赤羽，河岸A面</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>赤羽，河岸B面</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>赤羽，河岸C面</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>赤羽，河岸D面</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>赤羽，河岸E面</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="B10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>15:00~17:00</t>
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>滝野川A面</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>滝野川B面</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>滝野川C面</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>07:00~09:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>09:00~11:00</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>11:00~13:00</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>13:00~15:00</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>15:00~17:00</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>09:00~11:00</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>11:00~13:00</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>13:00~15:00</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>15:00~17:00</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>18:00~20:00</t>
         </is>
